--- a/stock_historical_data/3mo/APEX.NS.xlsx
+++ b/stock_historical_data/3mo/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>2</v>
       </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>2</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1893,12 +1973,15 @@
         <v>48</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1946,13 +2029,16 @@
         <v>9</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2007,6 +2093,113 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B30" t="n">
+        <v>257.5560369116085</v>
+      </c>
+      <c r="C30" t="n">
+        <v>269.8262737453861</v>
+      </c>
+      <c r="D30" t="n">
+        <v>217.2338663952727</v>
+      </c>
+      <c r="E30" t="n">
+        <v>233.8487854003906</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>7566703</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>35</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B31" t="n">
+        <v>235.8200073242188</v>
+      </c>
+      <c r="C31" t="n">
+        <v>279.5499877929688</v>
+      </c>
+      <c r="D31" t="n">
+        <v>233.0500030517578</v>
+      </c>
+      <c r="E31" t="n">
+        <v>273.4500122070312</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>4632181</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I31" t="n">
+        <v>12</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>48</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
